--- a/similarities/split_global/harmonic_similarity_timestamps_292.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_292.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,375 +484,421 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['G', 'E:min', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:03.840000', '0:01:06.800000')]</t>
+          <t>('0:00:10.460000', '0:00:20.240000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:08.960000'), ('0:00:28.300000', '0:00:38.340000')]</t>
+          <t>('0:00:26.115071', '0:00:38.793167')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=10.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=28.3']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=26.115071</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['F', 'C:7', 'F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000'), ('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:00:08.700000', '0:00:37.670000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000'), ('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:22.170000', '0:00:32.220000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=22.17</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:maj', 'C:maj']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G', 'F']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:31.672000', '0:00:37.551000')]</t>
+          <t>('0:00:19.140000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:41.895260', '0:00:57.278480')]</t>
+          <t>('0:00:16.040000', '0:00:18.720000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=31.672']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+          <t>('0:01:08.980000', '0:01:27.200000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
+          <t>('0:00:16.440000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=16.44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab:7', 'Eb']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'G:7', 'D']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:09.150000', '0:00:21.490000')]</t>
+          <t>('0:00:03.826054', '0:00:14.054444')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:19.240204', '0:02:24.766553')]</t>
+          <t>('0:02:07.600000', '0:02:12.400000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=9.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=139.240204']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#:maj/A#', 'F:min'], ['G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:03:02.640000', '0:03:04.840000'), ('0:00:24.980000', '0:00:31.820000')]</t>
+          <t>('0:00:11.700000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:46.100000', '0:00:49.040000'), ('0:01:49.380000', '0:02:03.260000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=182.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=24.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=46.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=109.38']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:21.368730', '0:00:25.443832')]</t>
+          <t>('0:01:12.820000', '0:01:24.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
+          <t>('0:00:01.460000', '0:00:09.840000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=21.36873']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
+          <t>('0:00:09.240000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:39.260000', '0:00:42.740000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=61.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=9.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=39.26</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -862,76 +908,78 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D/5', 'A/3', 'D']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:21.740249', '0:00:26.767369')]</t>
+          <t>('0:00:08.700000', '0:00:26.220000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:10.200000', '0:00:12.320000')]</t>
+          <t>('0:00:00.320000', '0:00:10.960000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab'], ['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:02.430000'), ('0:00:17.680000', '0:00:20.040000')]</t>
+          <t>('0:00:23.300000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:00.800000', '0:01:09.040000'), ('0:01:14.200000', '0:01:21.180000')]</t>
+          <t>('0:00:41.380000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.0', 'https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=60.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=74.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -940,238 +988,246 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:48.540000', '0:02:00.720000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:28.860000', '0:01:37.740000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=108.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=88.86']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:20.050000', '0:00:26.800000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:15.580000', '0:01:32.280000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=20.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=75.58']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:00.380000', '0:00:07.840000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:01:58.925813')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'A:min7', 'D:7']]</t>
+          <t>['C', 'D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab:maj6', 'Bb:7', 'Bb:min7', 'Eb:7']]</t>
+          <t>['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:37.990000', '0:00:45.130000')]</t>
+          <t>('0:01:02.270000', '0:01:09.760000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:34.370000', '0:00:37.670000')]</t>
+          <t>('0:01:05.900000', '0:01:13.560000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=37.99']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=62.27</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=34.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=65.9</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F']]</t>
+          <t>['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:15.640000', '0:00:24.280000')]</t>
+          <t>('0:00:02.020000', '0:00:10.620000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:38.250000', '0:00:42.100000')]</t>
+          <t>('0:00:45.260000', '0:00:57.580000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=15.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=38.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=45.26</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
